--- a/biology/Botanique/Streptanthus_inflatus/Streptanthus_inflatus.xlsx
+++ b/biology/Botanique/Streptanthus_inflatus/Streptanthus_inflatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptanthus inflatus est une espèce végétale de la famille des Brassicaceae, originaire du sud-ouest des États-Unis.
 </t>
@@ -508,13 +520,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Description morphologique</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Appareil végétatif
-Appareil reproducteur</t>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouest des États-Unis.
+</t>
         </is>
       </c>
     </row>
@@ -539,12 +553,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouest des États-Unis.
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Caulanthus inflatus S.Wats. (1881-82) est considérée comme un synonyme de Streptanthus inflatus (S.Watson) Greene, 1891.
 </t>
         </is>
       </c>
@@ -570,41 +586,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Caulanthus inflatus S.Wats. (1881-82) est considérée comme un synonyme de Streptanthus inflatus (S.Watson) Greene, 1891.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Streptanthus_inflatus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Streptanthus_inflatus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Greene E.L., 1891–1897. Flora Franciscana. An attempt to classify and describe the vascular plants of middle California. (1: i-ii, 1-128. 1891; 2: 129-280. 1891; 3: i-ii, 281-352. 1892; 4: 353-480, 1897).
 Référence Biodiversity Heritage Library : 7387535 .
